--- a/config/testcases/Report_BE.ID01IntroDialog(Clone).xlsx
+++ b/config/testcases/Report_BE.ID01IntroDialog(Clone).xlsx
@@ -156,7 +156,7 @@
     <t>Managers/SoundManager/FxSource</t>
   </si>
   <si>
-    <t>$.act[0].turn[$.order].word[?(@.type=='question')].audio[*].file_path</t>
+    <t>$.act[0].turn[?(@.order==$.order)].word[?(@.type=='question')].audio[*].file_path</t>
   </si>
   <si>
     <t>getText</t>
@@ -165,7 +165,7 @@
     <t>BoxChatQuestion(Clone)[$.index]/Image/Text (TMP),TextMeshProUGUI</t>
   </si>
   <si>
-    <t>$.act[0].turn[$.order].word[?(@.type=='question')].text</t>
+    <t>$.act[0].turn[?(@.order==$.order)].word[?(@.type=='question')].text</t>
   </si>
   <si>
     <t xml:space="preserve">Chờ câu trả lời 1 xuất hiện </t>
@@ -177,7 +177,7 @@
     <t>Kiểm tra audio câu trả lời 1</t>
   </si>
   <si>
-    <t>$.act[0].turn[$.order].word[?(@.type=='answer')].audio[*].file_path</t>
+    <t>$.act[0].turn[?(@.order==$.order)].word[?(@.type=='answer')].audio[*].file_path</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra text câu trả lời 1 xuất hiện </t>
@@ -186,7 +186,7 @@
     <t>BoxChatAnswer(Clone)[$.index]/image/Text (TMP),TextMeshProUGUI</t>
   </si>
   <si>
-    <t>$.act[0].turn[$.order].word[?(@.type=='answer')].text</t>
+    <t>$.act[0].turn[?(@.order==$.order)].word[?(@.type=='answer')].text</t>
   </si>
   <si>
     <t>Next turn</t>
